--- a/output.xlsx
+++ b/output.xlsx
@@ -490,13 +490,8 @@
       <c r="C5" t="inlineStr">
         <is>
           <t xml:space="preserve">SCREEN AND REMOTE FUNCTIONALITY
-COUcIT
-Oncol
-VY FATHOWS C
-the massager manually on its LGD
-or use the hand
-Ss
-Operate
+Operate the messager manually on tts LCD touch
+panel, or use the hancly remote control
 </t>
         </is>
       </c>
@@ -512,11 +507,10 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t xml:space="preserve">GREAT FOR ThE BODY
-reflexology therapy In of tine
-to throughout
-UR? pre Sexe
-/ \ WDA
+          <t xml:space="preserve">GREAT FOR The BODY
+Provides reflexology therapy in tine soles of tine feet
+to trhoger positive responses tihrougnout tie body
+Xi ya X
 Improve Blood Target Sensitive Relax Leg
 Circulation Points of Sole Muscles
 </t>
@@ -534,9 +528,10 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t xml:space="preserve">MANUAL MODE oo AUTO MODE
-Press to choose from toe, (er) Press for a consistent,
-arch, or sole massage
+          <t xml:space="preserve">KNEADING
+MANUAL MODE AUTO MODE
+Prass to Ghoase fron toe, Press for a consistant.
+arch, or sole massage pre-set massage style
 </t>
         </is>
       </c>
@@ -555,7 +550,7 @@
           <t xml:space="preserve">GIVE THE GIFT OF RELAXATION
 The perfect gift for anyone! Moms, dads, husbands, wives,
 grandparents, and more will love this relaxing surprise
-Great for anyone!
+Great for _)
 </t>
         </is>
       </c>
@@ -625,13 +620,8 @@
       <c r="C12" t="inlineStr">
         <is>
           <t xml:space="preserve">SCREEN AND REMOTE FUNCTIONALITY
-COUcIT
-Oncol
-VY FATHOWS C
-the massager manually on its LGD
-or use the hand
-Ss
-Operate
+Operate the messager manually on tts LCD touch
+panel, or use the hancly remote control
 </t>
         </is>
       </c>
@@ -647,11 +637,10 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t xml:space="preserve">GREAT FOR ThE BODY
-reflexology therapy In of tine
-to throughout
-UR? pre Sexe
-/ \ WDA
+          <t xml:space="preserve">GREAT FOR The BODY
+Provides reflexology therapy in tine soles of tine feet
+to trhoger positive responses tihrougnout tie body
+Xi ya X
 Improve Blood Target Sensitive Relax Leg
 Circulation Points of Sole Muscles
 </t>
@@ -669,9 +658,10 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t xml:space="preserve">MANUAL MODE oo AUTO MODE
-Press to choose from toe, (er) Press for a consistent,
-arch, or sole massage
+          <t xml:space="preserve">KNEADING
+MANUAL MODE AUTO MODE
+Prass to Ghoase fron toe, Press for a consistant.
+arch, or sole massage pre-set massage style
 </t>
         </is>
       </c>
@@ -690,7 +680,7 @@
           <t xml:space="preserve">GIVE THE GIFT OF RELAXATION
 The perfect gift for anyone! Moms, dads, husbands, wives,
 grandparents, and more will love this relaxing surprise
-Great for anyone!
+Great for _)
 </t>
         </is>
       </c>

--- a/output.xlsx
+++ b/output.xlsx
@@ -454,7 +454,11 @@
           <t>SKY2339/SKY2339GGL-1.jpg</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr"/>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -465,7 +469,11 @@
           <t>SKY2339/SKY2339HOMEDEPOT-1.jpg</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr"/>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -476,7 +484,11 @@
           <t>SKY2339/SKY2339LRG-1.jpg</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr"/>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -489,10 +501,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t xml:space="preserve">SCREEN AND REMOTE FUNCTIONALITY
-Operate the messager manually on tts LCD touch
-panel, or use the hancly remote control
-</t>
+          <t>['SCREEN AND REMOTE FUNCTIONALITY Operate the massager manually @ its LCD touch panel @ use the handly remote @ontol', '83', 'ONIOFA', 'Auto', '40', 'Timo', 'Spccd', 'Monudi', 'Oircetion', 'Ao']</t>
         </is>
       </c>
     </row>
@@ -507,13 +516,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t xml:space="preserve">GREAT FOR The BODY
-Provides reflexology therapy in tine soles of tine feet
-to trhoger positive responses tihrougnout tie body
-Xi ya X
-Improve Blood Target Sensitive Relax Leg
-Circulation Points of Sole Muscles
-</t>
+          <t>['GREAT FOR THE BODy', 'Provides reflexologl therapy in the soles @f the feet C@ tngger positive responses throughout the booy', 'Improve Blood Circulation', 'Target Sensitive Points of Sole', 'Relax Leg Muscles']</t>
         </is>
       </c>
     </row>
@@ -528,11 +531,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t xml:space="preserve">KNEADING
-MANUAL MODE AUTO MODE
-Prass to Ghoase fron toe, Press for a consistant.
-arch, or sole massage pre-set massage style
-</t>
+          <t>['5;', 'PUSHING', 'ROLLING', 'KNEADING', ';#', 'MAUAL MODE', 'AUTO MODB', 'Press @0 chooSe fromn {@C ach; @r soll massage', 'Press for @ @onsistent pre-set massage style']</t>
         </is>
       </c>
     </row>
@@ -547,11 +546,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t xml:space="preserve">GIVE THE GIFT OF RELAXATION
-The perfect gift for anyone! Moms, dads, husbands, wives,
-grandparents, and more will love this relaxing surprise
-Great for _)
-</t>
+          <t>['GIVE The GIFT OF RELAXATION The perfect gift for anyonel Moms, dads, husbands, wives, grandparents, and more will love this relaxing surprise', 'Great for anyonel']</t>
         </is>
       </c>
     </row>
@@ -566,18 +561,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t xml:space="preserve">ADDITIONAL FEATURES
-This foot massager is designed to help provide both physical
-pain relief and peace of mind in the form of convenience
-REMOVABLE &amp;
-WASHABLE SLEEVE
-BRIGHT
-LCD SCREEN
-NON-SLIP
-BOTTOM
-ANTI-SKID
-PAD
-</t>
+          <t>['ADDITIONAL FEATURES', 'This foot massager is designed to help provide both physical pain relief and peace of mind in the form of convenience', 'REMOVABLE &amp; WASHABLE SLEEVE', 'BRIGHT LCD SCREEN', 'NON-SLIP BOTTOM', 'ANTI-SKID PAD']</t>
         </is>
       </c>
     </row>
@@ -592,8 +576,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t xml:space="preserve">PRODUCT DIMENSIONS
-</t>
+          <t>['PRODUCT DIMENSIONS', '9.8"', '14"', '23.5"']</t>
         </is>
       </c>
     </row>
@@ -606,7 +589,11 @@
           <t>SKY2339/SKY2339TARGET-1.jpg</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr"/>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -619,10 +606,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t xml:space="preserve">SCREEN AND REMOTE FUNCTIONALITY
-Operate the messager manually on tts LCD touch
-panel, or use the hancly remote control
-</t>
+          <t>['SCREEN AND REMOTE FUNCTIONALITY Operate the massager manually @ its LCD touch panel @ use the handly remote @ontol', '83', 'ONIOFA', 'Auto', '40', 'Timo', 'Spccd', 'Monudi', 'Oircetion', 'Ao']</t>
         </is>
       </c>
     </row>
@@ -637,13 +621,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t xml:space="preserve">GREAT FOR The BODY
-Provides reflexology therapy in tine soles of tine feet
-to trhoger positive responses tihrougnout tie body
-Xi ya X
-Improve Blood Target Sensitive Relax Leg
-Circulation Points of Sole Muscles
-</t>
+          <t>['GREAT FOR THE BODy', 'Provides reflexologl therapy in the soles @f the feet C@ tngger positive responses throughout the booy', 'Improve Blood Circulation', 'Target Sensitive Points of Sole', 'Relax Leg Muscles']</t>
         </is>
       </c>
     </row>
@@ -658,11 +636,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t xml:space="preserve">KNEADING
-MANUAL MODE AUTO MODE
-Prass to Ghoase fron toe, Press for a consistant.
-arch, or sole massage pre-set massage style
-</t>
+          <t>['5;', 'PUSHING', 'ROLLING', 'KNEADING', ';#', 'MAUAL MODE', 'AUTO MODB', 'Press @0 chooSe fromn {@C ach; @r soll massage', 'Press for @ @onsistent pre-set massage style']</t>
         </is>
       </c>
     </row>
@@ -677,11 +651,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t xml:space="preserve">GIVE THE GIFT OF RELAXATION
-The perfect gift for anyone! Moms, dads, husbands, wives,
-grandparents, and more will love this relaxing surprise
-Great for _)
-</t>
+          <t>['GIVE The GIFT OF RELAXATION The perfect gift for anyonel Moms, dads, husbands, wives, grandparents, and more will love this relaxing surprise', 'Great for anyonel']</t>
         </is>
       </c>
     </row>
@@ -696,18 +666,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t xml:space="preserve">ADDITIONAL FEATURES
-This foot massager is designed to help provide both physical
-pain relief and peace of mind in the form of convenience
-REMOVABLE &amp;
-WASHABLE SLEEVE
-BRIGHT
-LCD SCREEN
-NON-SLIP
-BOTTOM
-ANTI-SKID
-PAD
-</t>
+          <t>['ADDITIONAL FEATURES', 'This foot massager is designed to help provide both physical pain relief and peace of mind in the form of convenience', 'REMOVABLE &amp; WASHABLE SLEEVE', 'BRIGHT LCD SCREEN', 'NON-SLIP BOTTOM', 'ANTI-SKID PAD']</t>
         </is>
       </c>
     </row>
@@ -722,8 +681,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t xml:space="preserve">PRODUCT DIMENSIONS
-</t>
+          <t>['PRODUCT DIMENSIONS', '9.8"', '14"', '23.5"']</t>
         </is>
       </c>
     </row>
@@ -736,7 +694,11 @@
           <t>SKY2339/SKY2339WALMART-1.jpg</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr"/>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -747,7 +709,11 @@
           <t>SKY2339/SKY2339WAYFAIR-1.jpg</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr"/>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
